--- a/target/classes/excelfiles/VerifyCustomers.xlsx
+++ b/target/classes/excelfiles/VerifyCustomers.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>TestCases</t>
   </si>
@@ -36,6 +36,24 @@
   </si>
   <si>
     <t>Test_Scenarion</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Address 1</t>
+  </si>
+  <si>
+    <t>Address 2</t>
   </si>
   <si>
     <t>Create Customer</t>
@@ -46,10 +64,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -69,7 +87,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,14 +186,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -98,121 +215,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,187 +245,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,6 +430,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -478,17 +505,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,29 +530,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -539,130 +551,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,24 +1056,42 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.2857142857143" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="32.2857142857143" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="32.2857142857143" style="2" customWidth="1"/>
     <col min="3" max="16384" width="32.2857142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:2">
+    <row r="1" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
@@ -1069,7 +1099,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/excelfiles/VerifyCustomers.xlsx
+++ b/target/classes/excelfiles/VerifyCustomers.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
-    <sheet name="VerifyCreateCustomer" sheetId="2" r:id="rId2"/>
+    <sheet name="CreateCustomerBlankInputs" sheetId="2" r:id="rId2"/>
+    <sheet name="CreateCustoemrValidInputs" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>TestCases</t>
   </si>
@@ -26,12 +27,15 @@
     <t>Exicution</t>
   </si>
   <si>
-    <t>VerifyCreateCustomer</t>
+    <t>CreateCustomerBlankInputs</t>
   </si>
   <si>
     <t>y</t>
   </si>
   <si>
+    <t>CreateCustoemrValidInputs</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -56,7 +60,28 @@
     <t>Address 2</t>
   </si>
   <si>
-    <t>Create Customer</t>
+    <t>Leave all fields blank and check the validation messages</t>
+  </si>
+  <si>
+    <t>Jamnagar, Gujarat, India</t>
+  </si>
+  <si>
+    <t>Verify Create Customer using Valid inputs</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Lloyd Hansen</t>
+  </si>
+  <si>
+    <t>lloyd@yopmail.com</t>
+  </si>
+  <si>
+    <t>4852 Spring St</t>
+  </si>
+  <si>
+    <t>Jamnagar</t>
   </si>
 </sst>
 </file>
@@ -64,10 +89,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -86,6 +111,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -93,21 +133,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -116,9 +164,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,9 +196,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,14 +205,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,14 +226,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -187,44 +235,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,6 +270,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -257,151 +312,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,12 +445,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,45 +455,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -489,9 +475,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,17 +518,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -530,18 +537,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -551,134 +576,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -688,6 +713,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1014,36 +1042,44 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="46.2857142857143" style="4" customWidth="1"/>
-    <col min="2" max="2" width="27.8571428571429" style="4" customWidth="1"/>
-    <col min="3" max="3" width="22.1428571428571" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="46.2857142857143" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.8571428571429" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.1428571428571" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1058,52 +1094,133 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.2857142857143" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="32.2857142857143" style="2" customWidth="1"/>
+    <col min="1" max="1" width="32.2857142857143" style="2" customWidth="1"/>
+    <col min="2" max="2" width="58.1428571428571" style="2" customWidth="1"/>
     <col min="3" max="16384" width="32.2857142857143" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:2">
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="32.2857142857143" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="32.2857142857143" style="2" customWidth="1"/>
+    <col min="2" max="2" width="58.1428571428571" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="32.2857142857143" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1590264569</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="lloyd@yopmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/target/classes/excelfiles/VerifyCustomers.xlsx
+++ b/target/classes/excelfiles/VerifyCustomers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7740" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>TestCases</t>
   </si>
@@ -63,6 +63,12 @@
     <t>Leave all fields blank and check the validation messages</t>
   </si>
   <si>
+    <t>Sharad Pawar</t>
+  </si>
+  <si>
+    <t>sharad@yopmail.com</t>
+  </si>
+  <si>
     <t>Jamnagar, Gujarat, India</t>
   </si>
   <si>
@@ -81,7 +87,13 @@
     <t>4852 Spring St</t>
   </si>
   <si>
-    <t>Jamnagar</t>
+    <t>Verify Do Later button</t>
+  </si>
+  <si>
+    <t>Lillian Ward</t>
+  </si>
+  <si>
+    <t>ward@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -89,10 +101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -119,6 +131,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -135,40 +155,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,21 +186,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -226,6 +200,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -234,6 +223,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -241,15 +245,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,25 +282,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,60 +444,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -366,85 +456,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +467,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -499,54 +559,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -558,148 +570,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1094,7 +1106,7 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1138,11 +1150,23 @@
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7456965485</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="sharad@yopmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1151,13 +1175,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.2857142857143" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="32.2857142857143" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="32.2857142857143" style="2" customWidth="1"/>
     <col min="2" max="2" width="58.1428571428571" style="2" customWidth="1"/>
@@ -1195,30 +1219,57 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1">
         <v>1590264569</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7412589512</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="lloyd@yopmail.com"/>
+    <hyperlink ref="E3" r:id="rId2" display="ward@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/target/classes/excelfiles/VerifyCustomers.xlsx
+++ b/target/classes/excelfiles/VerifyCustomers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>TestCases</t>
   </si>
@@ -78,22 +78,16 @@
     <t>India</t>
   </si>
   <si>
-    <t>Lloyd Hansen</t>
-  </si>
-  <si>
-    <t>lloyd@yopmail.com</t>
+    <t>Jill Diaz</t>
+  </si>
+  <si>
+    <t>jill@yopmail.com</t>
   </si>
   <si>
     <t>4852 Spring St</t>
   </si>
   <si>
-    <t>Verify Do Later button</t>
-  </si>
-  <si>
-    <t>Lillian Ward</t>
-  </si>
-  <si>
-    <t>ward@yopmail.com</t>
+    <t>1501 2nd Ave, Seattle, WA 98101, United States</t>
   </si>
 </sst>
 </file>
@@ -101,9 +95,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -131,6 +125,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -139,10 +147,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,9 +164,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,6 +195,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -208,13 +224,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -223,45 +232,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,31 +276,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,139 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,6 +461,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -490,6 +493,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,42 +561,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -591,127 +585,127 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1175,13 +1169,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.2857142857143" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="32.2857142857143" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="32.2857142857143" style="2" customWidth="1"/>
     <col min="2" max="2" width="58.1428571428571" style="2" customWidth="1"/>
@@ -1214,7 +1208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="30" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1231,45 +1225,18 @@
         <v>21</v>
       </c>
       <c r="F2" s="1">
-        <v>1590264569</v>
+        <v>9487676940</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1">
-        <v>7412589512</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="lloyd@yopmail.com"/>
-    <hyperlink ref="E3" r:id="rId2" display="ward@yopmail.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="jill@yopmail.com" tooltip="mailto:jill@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
